--- a/plan.xlsx
+++ b/plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>퀘스트 시스템?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보드판 10*10이 있고 보스가 생성 서로 보스 무찌르는 게임 옆에 붙으면 업글이 더 쉬움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,6 +1095,16 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
